--- a/biology/Zoologie/Albertaceratops/Albertaceratops.xlsx
+++ b/biology/Zoologie/Albertaceratops/Albertaceratops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Albertaceratops nesmoi
 Albertaceratops (« visage cornu d'Alberta ») est un genre fossile de Ceratopsidae qui vivaient au Canada et aux États-Unis au cours du Crétacé supérieur entre 83,5 à 70,6 millions d’années, genre resté monotypique en 2024 avec une seule espèce définie Albertaceratops nesmoi.
@@ -512,9 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La seule espèce du genre, Albertaceratops nesmoi, est découverte en août 2001 et décrite en 2007 par le paléontologue canadien Michael Joseph Ryan (d)[1],[2], comme le genre Albertaceratops[1],[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La seule espèce du genre, Albertaceratops nesmoi, est découverte en août 2001 et décrite en 2007 par le paléontologue canadien Michael Joseph Ryan (d) comme le genre Albertaceratops,. 
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Albertaceratops est un dinosaure herbivore qui mesurait 2,5 mètres de haut et 6 mètres de long et pesait une tonne. Sa description est basée sur un seul crâne presque complet, il avait de longues cornes au-dessus de ses yeux et de sa collerette ainsi qu'une petite crête osseuse sur le museau[1].  
-Albertaceratops nesmoi est nommé en l’honneur de la province de l'Alberta au Canada, où le nouveau dinosaure a été découvert et de Cecil Nesmo, un rancher local habitant près de Manyberries, Alberta, qui a longtemps soutenu l'étude de la paléontologie et d'autres recherches dans le secteur[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Albertaceratops est un dinosaure herbivore qui mesurait 2,5 mètres de haut et 6 mètres de long et pesait une tonne. Sa description est basée sur un seul crâne presque complet, il avait de longues cornes au-dessus de ses yeux et de sa collerette ainsi qu'une petite crête osseuse sur le museau.  
+Albertaceratops nesmoi est nommé en l’honneur de la province de l'Alberta au Canada, où le nouveau dinosaure a été découvert et de Cecil Nesmo, un rancher local habitant près de Manyberries, Alberta, qui a longtemps soutenu l'étude de la paléontologie et d'autres recherches dans le secteur.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Inventaire des fossiles retrouvés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Crâne complet, ainsi que fragments postcrâniens[1].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Crâne complet, ainsi que fragments postcrâniens.</t>
         </is>
       </c>
     </row>
